--- a/data/trans_bre/P11_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.90103887667427</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.762471643381426</v>
+        <v>3.762471643381429</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08164974066880668</v>
@@ -649,7 +649,7 @@
         <v>0.4442896418940608</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4580880837229786</v>
+        <v>0.4580880837229791</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.835001732289974</v>
+        <v>-2.605525626677896</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.03545079883397961</v>
+        <v>-0.1599330478162367</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.072567740815613</v>
+        <v>-0.9786334647860634</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.980723614338588</v>
+        <v>-2.974883711423114</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3537673595812191</v>
+        <v>-0.3226994664970466</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.02914455570500486</v>
+        <v>-0.03216140743788561</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1900832251495723</v>
+        <v>-0.1841096220038643</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2362493733257717</v>
+        <v>-0.3125677728228191</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.905924674435127</v>
+        <v>4.094415803939234</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.911653494960214</v>
+        <v>6.724698304783169</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.941769603588841</v>
+        <v>5.243730517073207</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.58184175270968</v>
+        <v>10.05209615667947</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7706163308037078</v>
+        <v>0.8095866549677635</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.509474772010784</v>
+        <v>1.589314313175849</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.923720174707302</v>
+        <v>1.950170031525137</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.129512200084189</v>
+        <v>1.901418249642702</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.031187538608668</v>
+        <v>5.467070134385454</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.91331794063695</v>
+        <v>-2.775499472309146</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.8813595772819647</v>
+        <v>-1.442056739048434</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.304809900625016</v>
+        <v>-5.5722674888441</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6853299680760558</v>
+        <v>0.7432521249481501</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2987842152116829</v>
+        <v>-0.2733029722749569</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.09393231027011646</v>
+        <v>-0.1396440463258648</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2896249309960099</v>
+        <v>-0.2960476363906299</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.78512364067428</v>
+        <v>11.74003274898093</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.594119012903</v>
+        <v>3.746827861642817</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.92457428722162</v>
+        <v>5.664354059942078</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.851441335209981</v>
+        <v>4.864346339278183</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.516411718432217</v>
+        <v>2.470882038749461</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5073085274637876</v>
+        <v>0.5499769757364609</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8953561013626891</v>
+        <v>0.8647597216503996</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.390774337304152</v>
+        <v>0.3925952814111348</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.209139290064951</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.497211811144733</v>
+        <v>4.49721181114473</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9244398119270383</v>
@@ -849,7 +849,7 @@
         <v>0.2809444228845421</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2452748089760146</v>
+        <v>0.2452748089760144</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.663791398794396</v>
+        <v>5.630576044352989</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.14944834763147</v>
+        <v>2.36493540261285</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3603944215610126</v>
+        <v>-0.6712208359842524</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5048831118662267</v>
+        <v>0.1864612438496965</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4628039068225157</v>
+        <v>0.463178205100803</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1438149708078431</v>
+        <v>0.1700531391308855</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.02585166672033594</v>
+        <v>-0.05093962850825925</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.01882176267217504</v>
+        <v>0.008154117317703267</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.56738059286794</v>
+        <v>13.73691190748312</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.13813208281944</v>
+        <v>10.78806744673707</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.188641891336111</v>
+        <v>6.920803476395918</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.753072441002777</v>
+        <v>8.82127423559959</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.534092549693873</v>
+        <v>1.505304914707917</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9476940283914486</v>
+        <v>1.032577104660128</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7546639533258943</v>
+        <v>0.7251823388589139</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5328800913712652</v>
+        <v>0.5670595386325682</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.724578106445255</v>
+        <v>6.289194335644491</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.153439487419636</v>
+        <v>7.911555610024223</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5800661936422007</v>
+        <v>0.1382740706381849</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.142915742431852</v>
+        <v>3.827694907679907</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2866022957504989</v>
+        <v>0.2982240631373533</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4882468441651722</v>
+        <v>0.4949612239994464</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02977776284565219</v>
+        <v>0.008266798173948892</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1436769225649578</v>
+        <v>0.1319335420184032</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.4987936454493</v>
+        <v>16.84136306582222</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.91247766659459</v>
+        <v>17.91082124617274</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.723602124158205</v>
+        <v>9.344414187916108</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.6338789797795</v>
+        <v>12.64288941080171</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.032781400402112</v>
+        <v>1.058589289496016</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.496597648003052</v>
+        <v>1.525498746186358</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5745429092636294</v>
+        <v>0.5689140763371653</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5475203086864706</v>
+        <v>0.5374023175155214</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>16.83333566967383</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.197316478505467</v>
+        <v>8.197316478505485</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2473840908398046</v>
@@ -1049,7 +1049,7 @@
         <v>0.6838434098909055</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2175169940882158</v>
+        <v>0.2175169940882162</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5477885443120185</v>
+        <v>0.615707198704925</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>13.14512762055304</v>
+        <v>12.70416933873541</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10.55082586039112</v>
+        <v>9.862213464383689</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.546597937813552</v>
+        <v>2.964805059688834</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01771617003756875</v>
+        <v>0.01026055771192181</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4385002512305671</v>
+        <v>0.4132019184327433</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3913196949892706</v>
+        <v>0.3571061070608634</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.0859533563893527</v>
+        <v>0.07179597092428935</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.52373778980244</v>
+        <v>14.10334225547726</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>26.07580210124263</v>
+        <v>25.79329019829292</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22.92721687746879</v>
+        <v>22.62184375942438</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.29067790174278</v>
+        <v>13.18695777422157</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.492808890720293</v>
+        <v>0.5114340563870572</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.093594725612487</v>
+        <v>1.132077925117107</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.070034014529603</v>
+        <v>1.062436769893668</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3758981231048283</v>
+        <v>0.3767944548006951</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>9.444029665004177</v>
+        <v>9.116375754084876</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>11.15148459089899</v>
+        <v>11.13685573750824</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14.53539922577474</v>
+        <v>14.55743044676871</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11.73177634818565</v>
+        <v>11.87635309766152</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2246981754273527</v>
+        <v>0.2209921578316492</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2480950641038714</v>
+        <v>0.2555138477085362</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4027304507192826</v>
+        <v>0.4099453062819827</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3085283698323498</v>
+        <v>0.3081411209032528</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>23.96460348297602</v>
+        <v>24.40878575490844</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>26.85972840215464</v>
+        <v>27.95122454384761</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>28.76914361123844</v>
+        <v>29.34725383662306</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>22.16323529086262</v>
+        <v>22.42322651266491</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7195783234178457</v>
+        <v>0.7645811476872701</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7319649680636535</v>
+        <v>0.8272250581641516</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.020059155244655</v>
+        <v>1.050030281727754</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6946559571877757</v>
+        <v>0.7195396468685226</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>14.98179991550068</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27.24007704061354</v>
+        <v>27.24007704061353</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1178768684318343</v>
@@ -1249,7 +1249,7 @@
         <v>0.2763730935687633</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.5357984965037547</v>
+        <v>0.5357984965037544</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6160695950733498</v>
+        <v>-1.965508976651984</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.026815819474159</v>
+        <v>9.09591809615346</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.266427819892768</v>
+        <v>7.181405126650827</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>21.43709338926856</v>
+        <v>21.8585037743832</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.009224351781563068</v>
+        <v>-0.02811374638860909</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1263208296194635</v>
+        <v>0.1344124220514339</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1213912158999857</v>
+        <v>0.1241006602299512</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3888508234278906</v>
+        <v>0.394298617035982</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.84786088358049</v>
+        <v>15.06351669653587</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.76839998908259</v>
+        <v>24.60733627215272</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>22.37912312944955</v>
+        <v>22.61639587382262</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>32.52141960890082</v>
+        <v>32.73156690818701</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2624718422623721</v>
+        <v>0.2753278239499019</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.441998390696527</v>
+        <v>0.4440246769911467</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4445632071241883</v>
+        <v>0.4554794043481457</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.6882144543635292</v>
+        <v>0.70231445742688</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>10.25480769650377</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10.6800985386908</v>
+        <v>10.68009853869079</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6061068930643035</v>
@@ -1349,7 +1349,7 @@
         <v>0.552590268122554</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.4038473256696964</v>
+        <v>0.4038473256696962</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>9.106364460019829</v>
+        <v>9.069812110886327</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>10.36633153416149</v>
+        <v>10.13755664497157</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8.037533646515126</v>
+        <v>8.26957689953605</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8.439108374671994</v>
+        <v>8.611728575689828</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4787811522119808</v>
+        <v>0.4739062632373653</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5220408394744879</v>
+        <v>0.5099626178754784</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4168086763669682</v>
+        <v>0.4258566168308017</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.305491411603634</v>
+        <v>0.3089784977971205</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>13.10185231098269</v>
+        <v>13.15484631881396</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>14.42179135459186</v>
+        <v>14.37544784990567</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>12.19092632573419</v>
+        <v>12.30351391993472</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>12.64221271788105</v>
+        <v>12.84302438958757</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7674264391248016</v>
+        <v>0.765723490300423</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8141130053452381</v>
+        <v>0.8107538122699096</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6950677199651886</v>
+        <v>0.691899771355026</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5015557703878846</v>
+        <v>0.5096708228709804</v>
       </c>
     </row>
     <row r="28">
